--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="1006">
   <si>
     <t>anchor score</t>
   </si>
@@ -475,427 +475,427 @@
     <t>toward</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>keeping</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>stocked</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>keeping</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>stocked</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>safe</t>
@@ -3397,10 +3397,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02855610791855113</v>
+        <v>0.02899646528364006</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -3479,16 +3479,16 @@
         <v>152</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K3">
-        <v>0.005512222069193219</v>
+        <v>0.007709318894202316</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>51</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3508,7 +3508,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01120315903436755</v>
+        <v>0.01137592044874228</v>
       </c>
       <c r="C4">
         <v>78</v>
@@ -3529,16 +3529,16 @@
         <v>437</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K4">
-        <v>0.004658677934787077</v>
+        <v>0.007194023604579608</v>
       </c>
       <c r="L4">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="M4">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>421</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3558,7 +3558,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01105973304010503</v>
+        <v>0.01123028271424195</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -3579,28 +3579,28 @@
         <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c r="K5">
-        <v>0.004214253756743716</v>
+        <v>0.005512222069193219</v>
       </c>
       <c r="L5">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="M5">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>202</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3608,7 +3608,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01023932314664782</v>
+        <v>0.01039722146297344</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -3629,16 +3629,16 @@
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K6">
-        <v>0.004166848218984894</v>
+        <v>0.004658677934787077</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3658,7 +3658,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009653726442340069</v>
+        <v>0.009802594402622447</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -3679,28 +3679,28 @@
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="K7">
-        <v>0.003961456928383377</v>
+        <v>0.004214253756743716</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3708,7 +3708,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008004447109493627</v>
+        <v>0.008127881901384172</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3729,28 +3729,28 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="K8">
-        <v>0.00388683488806101</v>
+        <v>0.004166848218984894</v>
       </c>
       <c r="L8">
-        <v>360</v>
+        <v>52</v>
       </c>
       <c r="M8">
-        <v>374</v>
+        <v>52</v>
       </c>
       <c r="N8">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2733</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3758,7 +3758,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007240294831755052</v>
+        <v>0.007351945801966835</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -3779,16 +3779,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K9">
-        <v>0.003467027287067501</v>
+        <v>0.003961456928383377</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3808,7 +3808,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006826215431098548</v>
+        <v>0.006931480975315626</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3829,28 +3829,28 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="K10">
-        <v>0.003405390044066429</v>
+        <v>0.00388683488806101</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>360</v>
       </c>
       <c r="M10">
-        <v>108</v>
+        <v>374</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3858,7 +3858,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006385339847870036</v>
+        <v>0.006483806748143189</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -3879,16 +3879,16 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K11">
-        <v>0.003369344888167768</v>
+        <v>0.003467027287067501</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3908,7 +3908,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006385339847870036</v>
+        <v>0.006483806748143189</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3929,28 +3929,28 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K12">
-        <v>0.003165963546149442</v>
+        <v>0.003405390044066429</v>
       </c>
       <c r="L12">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>768</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3958,7 +3958,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.005911675975036685</v>
+        <v>0.006002838610471869</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3979,28 +3979,28 @@
         <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="K13">
-        <v>0.003062747801442993</v>
+        <v>0.003369344888167768</v>
       </c>
       <c r="L13">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4008,7 +4008,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005911675975036685</v>
+        <v>0.006002838610471869</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -4029,28 +4029,28 @@
         <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="K14">
-        <v>0.0030025337062143</v>
+        <v>0.003165963546149442</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>203</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4058,7 +4058,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.005911675975036685</v>
+        <v>0.006002838610471869</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4079,28 +4079,28 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="K15">
-        <v>0.00297416102477529</v>
+        <v>0.003062747801442993</v>
       </c>
       <c r="L15">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="M15">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>2959</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4108,7 +4108,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005911675975036685</v>
+        <v>0.006002838610471869</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4129,16 +4129,16 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K16">
-        <v>0.002946406631819307</v>
+        <v>0.0030025337062143</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4158,7 +4158,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005911675975036685</v>
+        <v>0.006002838610471869</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4179,28 +4179,28 @@
         <v>143</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>0.002830815925873744</v>
+        <v>0.00297416102477529</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>91</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4208,7 +4208,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -4229,16 +4229,16 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K18">
-        <v>0.002771213125917283</v>
+        <v>0.002946406631819307</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4258,7 +4258,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -4279,16 +4279,16 @@
         <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K19">
-        <v>0.002771213125917283</v>
+        <v>0.002830815925873744</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4308,7 +4308,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -4329,28 +4329,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
       <c r="K20">
-        <v>0.002725953058165299</v>
+        <v>0.002771213125917283</v>
       </c>
       <c r="L20">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>153</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4358,7 +4358,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4379,16 +4379,16 @@
         <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K21">
-        <v>0.00271029990449988</v>
+        <v>0.002771213125917283</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4408,7 +4408,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4429,28 +4429,28 @@
         <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K22">
-        <v>0.002709212897203315</v>
+        <v>0.002725953058165299</v>
       </c>
       <c r="L22">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="M22">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>777</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4458,7 +4458,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4479,28 +4479,28 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="K23">
-        <v>0.002699459321733744</v>
+        <v>0.00271029990449988</v>
       </c>
       <c r="L23">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4508,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4529,28 +4529,28 @@
         <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="K24">
-        <v>0.002584169564576537</v>
+        <v>0.002709212897203315</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>123</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4558,7 +4558,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4579,28 +4579,28 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="K25">
-        <v>0.002584169564576537</v>
+        <v>0.002699459321733744</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4608,7 +4608,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4629,28 +4629,28 @@
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="K26">
-        <v>0.002543743492818731</v>
+        <v>0.002584169564576537</v>
       </c>
       <c r="L26">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4658,7 +4658,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4679,16 +4679,16 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K27">
-        <v>0.002518736929804203</v>
+        <v>0.002584169564576537</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>146</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4708,7 +4708,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0053965971403149</v>
+        <v>0.005479816860030683</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4729,28 +4729,28 @@
         <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="K28">
-        <v>0.002451558505244229</v>
+        <v>0.002543743492818731</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4758,7 +4758,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004826863221170034</v>
+        <v>0.004901297201311224</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4779,16 +4779,16 @@
         <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K29">
-        <v>0.002451558505244229</v>
+        <v>0.002518736929804203</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4808,7 +4808,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004826863221170034</v>
+        <v>0.004901297201311224</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4829,16 +4829,16 @@
         <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K30">
-        <v>0.002382486618579658</v>
+        <v>0.002451558505244229</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4858,7 +4858,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.004826863221170034</v>
+        <v>0.004901297201311224</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4879,28 +4879,28 @@
         <v>162</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="K31">
-        <v>0.002353604060742356</v>
+        <v>0.002451558505244229</v>
       </c>
       <c r="L31">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1882</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4908,7 +4908,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004826863221170034</v>
+        <v>0.004901297201311224</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4929,16 +4929,16 @@
         <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K32">
-        <v>0.002311351524711667</v>
+        <v>0.002382486618579658</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4958,7 +4958,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004826863221170034</v>
+        <v>0.004901297201311224</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4979,28 +4979,28 @@
         <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="K33">
-        <v>0.002311351524711667</v>
+        <v>0.002353604060742356</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5008,7 +5008,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004826863221170034</v>
+        <v>0.004901297201311224</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5029,16 +5029,16 @@
         <v>27</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K34">
-        <v>0.002237956490609852</v>
+        <v>0.002311351524711667</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5058,7 +5058,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004826863221170034</v>
+        <v>0.004901297201311224</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5079,28 +5079,28 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="K35">
-        <v>0.002221766502251373</v>
+        <v>0.002311351524711667</v>
       </c>
       <c r="L35">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5108,7 +5108,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004826863221170034</v>
+        <v>0.004901297201311224</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5129,16 +5129,16 @@
         <v>51</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K36">
-        <v>0.002162071376467155</v>
+        <v>0.002237956490609852</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5158,7 +5158,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004826863221170034</v>
+        <v>0.004901297201311224</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K37">
         <v>0.002162071376467155</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5208,7 +5208,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5229,7 +5229,7 @@
         <v>28</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K38">
         <v>0.002162071376467155</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5258,7 +5258,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5279,16 +5279,16 @@
         <v>48</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K39">
-        <v>0.002083424109492447</v>
+        <v>0.002162071376467155</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5308,7 +5308,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5329,7 +5329,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K40">
         <v>0.002083424109492447</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5358,7 +5358,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5379,7 +5379,7 @@
         <v>27</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K41">
         <v>0.002083424109492447</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5408,7 +5408,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5429,28 +5429,28 @@
         <v>35</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="K42">
-        <v>0.00205058819239296</v>
+        <v>0.002083424109492447</v>
       </c>
       <c r="L42">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>150</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5458,7 +5458,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5508,7 +5508,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5558,7 +5558,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5608,7 +5608,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5658,7 +5658,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5708,7 +5708,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5758,7 +5758,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5808,7 +5808,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5858,7 +5858,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5908,7 +5908,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5958,7 +5958,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -6008,7 +6008,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -6058,7 +6058,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004180186170126035</v>
+        <v>0.004244647887833091</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -6108,7 +6108,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6129,7 +6129,7 @@
         <v>5</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K56">
         <v>0.00190880599193517</v>
@@ -6158,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6179,7 +6179,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K57">
         <v>0.001851988603607303</v>
@@ -6208,7 +6208,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>9</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K58">
         <v>0.001832534540487237</v>
@@ -6258,7 +6258,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6308,7 +6308,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6358,7 +6358,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6408,7 +6408,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6458,7 +6458,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6508,7 +6508,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6558,7 +6558,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6579,7 +6579,7 @@
         <v>38</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K65">
         <v>0.001826571866241462</v>
@@ -6608,7 +6608,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6658,7 +6658,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6708,7 +6708,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6758,7 +6758,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6808,7 +6808,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6858,7 +6858,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6908,7 +6908,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6958,7 +6958,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7008,7 +7008,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7058,7 +7058,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003413107715549274</v>
+        <v>0.003465740487657813</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7108,7 +7108,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.00320138456766922</v>
+        <v>0.003250752404381285</v>
       </c>
       <c r="C76">
         <v>14</v>
@@ -7158,7 +7158,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002594728604496184</v>
+        <v>0.002634741335035507</v>
       </c>
       <c r="C77">
         <v>17</v>
@@ -7208,7 +7208,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002578988900197217</v>
+        <v>0.002618758912270418</v>
       </c>
       <c r="C78">
         <v>10</v>
@@ -7258,7 +7258,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7308,7 +7308,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7358,7 +7358,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7408,7 +7408,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7458,7 +7458,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7508,7 +7508,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7558,7 +7558,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7608,7 +7608,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7629,7 +7629,7 @@
         <v>5</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K86">
         <v>0.001619874165837423</v>
@@ -7658,7 +7658,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7679,7 +7679,7 @@
         <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K87">
         <v>0.001586537931554374</v>
@@ -7708,7 +7708,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7729,7 +7729,7 @@
         <v>18</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K88">
         <v>0.001586537931554374</v>
@@ -7758,7 +7758,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7808,7 +7808,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7858,7 +7858,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7908,7 +7908,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7958,7 +7958,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8058,7 +8058,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8108,7 +8108,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8158,7 +8158,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8258,7 +8258,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8308,7 +8308,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8358,7 +8358,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8408,7 +8408,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8429,7 +8429,7 @@
         <v>11</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K102">
         <v>0.001457386634648346</v>
@@ -8458,7 +8458,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8508,7 +8508,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8558,7 +8558,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8608,7 +8608,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8658,7 +8658,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8708,7 +8708,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8758,7 +8758,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8808,7 +8808,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8858,7 +8858,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8958,7 +8958,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9008,7 +9008,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9058,7 +9058,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9108,7 +9108,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9158,7 +9158,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9208,7 +9208,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9258,7 +9258,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9308,7 +9308,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9358,7 +9358,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9408,7 +9408,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>55</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K122">
         <v>0.001398435109954859</v>
@@ -9458,7 +9458,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9479,7 +9479,7 @@
         <v>107</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K123">
         <v>0.001380623183234948</v>
@@ -9508,7 +9508,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9529,7 +9529,7 @@
         <v>9</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K124">
         <v>0.001345250141655781</v>
@@ -9558,7 +9558,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9658,7 +9658,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9708,7 +9708,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9758,7 +9758,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9808,7 +9808,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9858,7 +9858,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9908,7 +9908,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9958,7 +9958,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10008,7 +10008,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10058,7 +10058,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10108,7 +10108,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10158,7 +10158,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10208,7 +10208,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10258,7 +10258,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10358,7 +10358,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10408,7 +10408,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10458,7 +10458,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10508,7 +10508,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10558,7 +10558,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10608,7 +10608,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10658,7 +10658,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002413431610585017</v>
+        <v>0.002450648600655612</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10708,25 +10708,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002223760755028858</v>
+        <v>0.001968266306051092</v>
       </c>
       <c r="C148">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="E148">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F148">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>415</v>
@@ -10758,25 +10758,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002108174453627252</v>
+        <v>0.001889227234830514</v>
       </c>
       <c r="C149">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E149">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F149">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>416</v>
@@ -10808,25 +10808,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001938375057036854</v>
+        <v>0.001809198043003513</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E150">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F150">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>153</v>
+        <v>777</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>417</v>
@@ -10858,25 +10858,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001860536319608734</v>
+        <v>0.001729225045819028</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="E151">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F151">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>418</v>
@@ -10908,13 +10908,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001781722498127684</v>
+        <v>0.001705238376503832</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E152">
         <v>0.98</v>
@@ -10926,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>419</v>
@@ -10958,25 +10958,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001702964017884279</v>
+        <v>0.001683944549796921</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>420</v>
@@ -11008,13 +11008,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.00167934162422798</v>
+        <v>0.001603122583345217</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E154">
         <v>0.98</v>
@@ -11026,7 +11026,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>768</v>
+        <v>16</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>421</v>
@@ -11058,13 +11058,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001658371178089342</v>
+        <v>0.001565314266511228</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="D155">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E155">
         <v>0.98</v>
@@ -11076,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>422</v>
@@ -11108,25 +11108,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.00157877662152501</v>
+        <v>0.001501602741840995</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D156">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E156">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F156">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>16</v>
+        <v>784</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>423</v>
@@ -11158,25 +11158,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001541542484013107</v>
+        <v>0.001396207626299822</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E157">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F157">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>424</v>
@@ -11208,25 +11208,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001478798520004326</v>
+        <v>0.001396134348773858</v>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E158">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F158">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>784</v>
+        <v>1083</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>425</v>
@@ -11258,25 +11258,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.00137500399663599</v>
+        <v>0.001382125264916331</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E159">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>426</v>
@@ -11308,28 +11308,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001374931831945606</v>
+        <v>0.0013672765730255</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E160">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F160">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>1083</v>
+        <v>348</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K160">
         <v>0.001201826642376361</v>
@@ -11358,25 +11358,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001361135498269678</v>
+        <v>0.001358845612223902</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>427</v>
@@ -11408,25 +11408,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001346512307341536</v>
+        <v>0.001316268020039426</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D162">
         <v>68</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>348</v>
+        <v>582</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>428</v>
@@ -11458,25 +11458,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001338209384066149</v>
+        <v>0.001230498093130948</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D163">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E163">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>429</v>
@@ -11508,25 +11508,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001296278400222476</v>
+        <v>0.001223995228714475</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>582</v>
+        <v>514</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>430</v>
@@ -11558,25 +11558,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001211811025837135</v>
+        <v>0.001133578849756699</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>431</v>
@@ -11608,25 +11608,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001205406917741888</v>
+        <v>0.001088092669429033</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
       <c r="D166">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>514</v>
+        <v>285</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>432</v>
@@ -11658,25 +11658,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001116363655059122</v>
+        <v>0.001073936646108826</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F167">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>433</v>
@@ -11708,25 +11708,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001071568254601386</v>
+        <v>0.001064779960794433</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D168">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E168">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F168">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>434</v>
@@ -11758,25 +11758,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001057627212971825</v>
+        <v>0.00106006297655358</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E169">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F169">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>435</v>
@@ -11808,25 +11808,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001048609586462653</v>
+        <v>0.001050832664680978</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E170">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F170">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>436</v>
@@ -11858,13 +11858,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.00104396423711699</v>
+        <v>0.001050832664680978</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E171">
         <v>0.98</v>
@@ -11876,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>437</v>
@@ -11908,25 +11908,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001034874102185798</v>
+        <v>0.0009897287186911698</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E172">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>438</v>
@@ -11958,25 +11958,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001034874102185798</v>
+        <v>0.00097844996181832</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E173">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F173">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>439</v>
@@ -12008,25 +12008,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0009746981166349397</v>
+        <v>0.0009280124859801682</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>440</v>
@@ -12058,25 +12058,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0009635906455932911</v>
+        <v>0.0009280124859801682</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E175">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F175">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>441</v>
@@ -12108,25 +12108,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0009139191429089209</v>
+        <v>0.0008900253826663263</v>
       </c>
       <c r="C176">
         <v>2</v>
       </c>
       <c r="D176">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E176">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F176">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>442</v>
@@ -12158,25 +12158,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0009139191429089209</v>
+        <v>0.0008731627752115684</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E177">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F177">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>443</v>
@@ -12208,13 +12208,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008765089340737341</v>
+        <v>0.0008700935458900094</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E178">
         <v>0.93</v>
@@ -12226,7 +12226,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>444</v>
@@ -12258,25 +12258,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0008599024120871416</v>
+        <v>0.000824079711436451</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E179">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F179">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>445</v>
@@ -12308,25 +12308,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.000856879793886065</v>
+        <v>0.0008071080795993264</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E180">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F180">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>446</v>
@@ -12358,25 +12358,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.000811564752568132</v>
+        <v>0.0007491236604522755</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E181">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F181">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>447</v>
@@ -12408,25 +12408,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0007948508619075249</v>
+        <v>0.0007277829330961081</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E182">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F182">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>448</v>
@@ -12458,25 +12458,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0007377470282312214</v>
+        <v>0.0007052683995314107</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E183">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F183">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>449</v>
@@ -12508,25 +12508,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.000716730393704153</v>
+        <v>0.0007052683995314107</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E184">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F184">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>450</v>
@@ -12558,7 +12558,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0006945577790795668</v>
+        <v>0.0007052683995314107</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12576,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>451</v>
@@ -12608,7 +12608,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0006945577790795668</v>
+        <v>0.0007052683995314107</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12626,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>452</v>
@@ -12658,25 +12658,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0006945577790795668</v>
+        <v>0.000701703439769133</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D187">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>453</v>
@@ -12708,25 +12708,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006945577790795668</v>
+        <v>0.0007000210398598047</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D188">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>342</v>
+        <v>926</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>454</v>
@@ -12758,25 +12758,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006910469588916205</v>
+        <v>0.0006820552128565948</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E189">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F189">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>455</v>
@@ -12808,25 +12808,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006893901088961815</v>
+        <v>0.0006814565251459256</v>
       </c>
       <c r="C190">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E190">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>926</v>
+        <v>95</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>456</v>
@@ -12858,25 +12858,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006716971215016407</v>
+        <v>0.0006562039218623631</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E191">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F191">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>457</v>
@@ -12908,13 +12908,13 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0006711075258144372</v>
+        <v>0.0006562039218623631</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E192">
         <v>0.9399999999999999</v>
@@ -12926,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>458</v>
@@ -12958,25 +12958,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0006462384234070957</v>
+        <v>0.0006540610449687021</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E193">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F193">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>459</v>
@@ -13008,25 +13008,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0006462384234070957</v>
+        <v>0.0006293429835115112</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>460</v>
@@ -13058,25 +13058,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0006441280895014635</v>
+        <v>0.0006293429835115112</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E195">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F195">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>461</v>
@@ -13108,13 +13108,13 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0006197854110541298</v>
+        <v>0.0006006763019403457</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E196">
         <v>0.93</v>
@@ -13126,7 +13126,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>462</v>
@@ -13158,25 +13158,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006197854110541298</v>
+        <v>0.00059417483965235</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>463</v>
@@ -13208,25 +13208,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005915540785587582</v>
+        <v>0.0005699694611448062</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F198">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>464</v>
@@ -13258,25 +13258,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005851513512984413</v>
+        <v>0.0005699694611448062</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E199">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F199">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>465</v>
@@ -13308,7 +13308,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.000561313569896141</v>
+        <v>0.0005699694611448062</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13326,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>466</v>
@@ -13358,7 +13358,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.000561313569896141</v>
+        <v>0.0005699694611448062</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13376,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>467</v>
@@ -13408,7 +13408,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.000561313569896141</v>
+        <v>0.0005699694611448062</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13426,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>468</v>
@@ -13458,25 +13458,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.000561313569896141</v>
+        <v>0.000525841787768241</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E203">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="F203">
-        <v>0.07999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>469</v>
@@ -13508,25 +13508,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.000561313569896141</v>
+        <v>0.0005012535124011123</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F204">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>470</v>
@@ -13558,25 +13558,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0005178560453044547</v>
+        <v>0.0004624910002073287</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E205">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F205">
-        <v>0.15</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>471</v>
@@ -13608,25 +13608,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0004936411819393349</v>
+        <v>0.0004624910002073287</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F206">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>472</v>
@@ -13658,25 +13658,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0004554673400392202</v>
+        <v>0.0004554350949668806</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E207">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F207">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>473</v>
@@ -13708,25 +13708,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0004554673400392202</v>
+        <v>0.0004201450583286067</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E208">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F208">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>474</v>
@@ -13758,25 +13758,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0004485185899230126</v>
+        <v>0.0004201450583286067</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F209">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>475</v>
@@ -13808,25 +13808,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004137644885236</v>
+        <v>0.0003853806455245653</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E210">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F210">
-        <v>0.11</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>44</v>
+        <v>529</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>476</v>
@@ -13858,25 +13858,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0004137644885236</v>
+        <v>0.0003741769849555167</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E211">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>477</v>
@@ -13908,25 +13908,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0003795280285259268</v>
+        <v>0.0003735866027404126</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="F212">
-        <v>0.1899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>529</v>
+        <v>34</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>478</v>
@@ -13958,25 +13958,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003684945133314703</v>
+        <v>0.0003735866027404126</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>479</v>
@@ -14008,7 +14008,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0003679130970076946</v>
+        <v>0.0003735866027404126</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14026,7 +14026,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>480</v>
@@ -14058,7 +14058,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003679130970076946</v>
+        <v>0.0003735866027404126</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>481</v>
@@ -14108,7 +14108,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003679130970076946</v>
+        <v>0.0003735866027404126</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14126,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>482</v>
@@ -14158,25 +14158,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003679130970076946</v>
+        <v>0.0003468054154077757</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E217">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F217">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>483</v>
@@ -14208,25 +14208,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003679130970076946</v>
+        <v>0.0003220412440414206</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E218">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F218">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>484</v>
@@ -14258,25 +14258,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003415386245271058</v>
+        <v>0.0003220412440414206</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>485</v>
@@ -14308,7 +14308,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003171505364227905</v>
+        <v>0.0003220412440414206</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14326,10 +14326,10 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K220">
         <v>0.001147376232979756</v>
@@ -14358,7 +14358,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003171505364227905</v>
+        <v>0.0003220412440414206</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14376,10 +14376,10 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K221">
         <v>0.001140362171732987</v>
@@ -14408,28 +14408,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003171505364227905</v>
+        <v>0.0002831654359276686</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E222">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F222">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K222">
         <v>0.001118203726150837</v>
@@ -14458,28 +14458,28 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003171505364227905</v>
+        <v>0.0002653172032638008</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E223">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="F223">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K223">
         <v>0.001101677728147795</v>
@@ -14508,28 +14508,28 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0002788651191811403</v>
+        <v>0.0002645830834259826</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K224">
         <v>0.001066038271825412</v>
@@ -14558,28 +14558,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0002612879402691858</v>
+        <v>0.0002645830834259826</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F225">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K225">
         <v>0.00104980068984711</v>
@@ -14608,7 +14608,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002605649692067192</v>
+        <v>0.0002645830834259826</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14626,7 +14626,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>486</v>
@@ -14658,7 +14658,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002605649692067192</v>
+        <v>0.0002645830834259826</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>487</v>
@@ -14708,7 +14708,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002605649692067192</v>
+        <v>0.0002645830834259826</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>488</v>
@@ -14758,7 +14758,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002605649692067192</v>
+        <v>0.0002645830834259826</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14776,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>489</v>
@@ -14808,25 +14808,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002605649692067192</v>
+        <v>0.0002002281999420993</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E230">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F230">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>490</v>
@@ -14858,25 +14858,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002605649692067192</v>
+        <v>0.0002002281999420993</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E231">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F231">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>491</v>
@@ -14908,7 +14908,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.000197187416809379</v>
+        <v>0.0002002281999420993</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14926,7 +14926,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>492</v>
@@ -14958,7 +14958,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.000197187416809379</v>
+        <v>0.0002002281999420993</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14976,7 +14976,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>493</v>
@@ -15008,7 +15008,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.000197187416809379</v>
+        <v>0.0002002281999420993</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15026,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>494</v>
@@ -15058,7 +15058,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.000197187416809379</v>
+        <v>0.0002002281999420993</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15076,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>495</v>
@@ -15108,7 +15108,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.000197187416809379</v>
+        <v>0.0002002281999420993</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15126,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>496</v>
@@ -15158,7 +15158,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.000197187416809379</v>
+        <v>0.0002002281999420993</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15176,7 +15176,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>497</v>
@@ -15208,7 +15208,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.000197187416809379</v>
+        <v>0.0002002281999420993</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15226,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>498</v>
@@ -15258,25 +15258,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.000197187416809379</v>
+        <v>0.0001284842399796122</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>499</v>
@@ -15308,25 +15308,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.000197187416809379</v>
+        <v>0.0001284842399796122</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>500</v>
@@ -15358,7 +15358,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001265330027919265</v>
+        <v>0.0001284842399796122</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15376,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>501</v>
@@ -15408,7 +15408,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001265330027919265</v>
+        <v>0.0001284842399796122</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15426,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>502</v>
@@ -15458,7 +15458,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001265330027919265</v>
+        <v>0.0001284842399796122</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15476,7 +15476,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>503</v>
@@ -15508,7 +15508,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001265330027919265</v>
+        <v>0.0001284842399796122</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>504</v>
@@ -15558,25 +15558,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001265330027919265</v>
+        <v>0.0001278224855946008</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E245">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F245">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>505</v>
@@ -15608,25 +15608,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001265330027919265</v>
+        <v>0.0001278224855946008</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>506</v>
@@ -15658,25 +15658,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001258812981979662</v>
+        <v>7.395860967085521E-05</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E247">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F247">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>507</v>
@@ -15708,25 +15708,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001258812981979662</v>
+        <v>7.395860967085404E-05</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E248">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F248">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>508</v>
@@ -15758,25 +15758,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>7.283543075364169E-05</v>
+        <v>7.395860967085404E-05</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E249">
+        <v>0.67</v>
+      </c>
+      <c r="F249">
         <v>0.33</v>
       </c>
-      <c r="F249">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>509</v>
@@ -15808,13 +15808,13 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>7.283543075364055E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E250">
         <v>0.67</v>
@@ -15826,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>510</v>
@@ -15858,13 +15858,13 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>7.283543075364055E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E251">
         <v>0.67</v>
@@ -15876,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>511</v>
@@ -15908,7 +15908,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>512</v>
@@ -15958,7 +15958,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -15976,7 +15976,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>513</v>
@@ -16008,7 +16008,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16026,7 +16026,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>514</v>
@@ -16058,7 +16058,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16076,7 +16076,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>515</v>
@@ -16108,7 +16108,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16126,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>516</v>
@@ -16158,7 +16158,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>517</v>
@@ -16208,7 +16208,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16226,7 +16226,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>518</v>
@@ -16258,7 +16258,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16276,7 +16276,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>519</v>
@@ -16308,7 +16308,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16358,7 +16358,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16376,7 +16376,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>521</v>
@@ -16408,7 +16408,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16426,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>522</v>
@@ -16458,7 +16458,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>523</v>
@@ -16508,7 +16508,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>5.150242699654244E-05</v>
+        <v>5.229663442538987E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16526,7 +16526,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>524</v>
@@ -16558,25 +16558,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>5.150242699654244E-05</v>
+        <v>0</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E265">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F265">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>525</v>
@@ -16608,25 +16608,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>5.150242699654244E-05</v>
+        <v>0</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E266">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F266">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>526</v>
@@ -16661,10 +16661,10 @@
         <v>0</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E267">
         <v>0.5</v>
@@ -16676,7 +16676,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>527</v>
@@ -16726,7 +16726,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>528</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>529</v>
@@ -16826,7 +16826,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>530</v>
@@ -16911,10 +16911,10 @@
         <v>0</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E272">
         <v>0.5</v>
@@ -16926,7 +16926,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>532</v>
@@ -16976,7 +16976,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>533</v>
@@ -17011,10 +17011,10 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E274">
         <v>0.5</v>
@@ -17026,7 +17026,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>534</v>
@@ -17076,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>535</v>
@@ -17126,7 +17126,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>536</v>
@@ -17176,7 +17176,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>537</v>
@@ -17226,7 +17226,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>538</v>
@@ -17276,7 +17276,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>539</v>
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>540</v>
@@ -17376,7 +17376,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>541</v>
@@ -17426,10 +17426,10 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K282">
         <v>0.000892622855220419</v>
@@ -17476,10 +17476,10 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K283">
         <v>0.0008474701619035431</v>
@@ -17526,10 +17526,10 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K284">
         <v>0.0008474701619035431</v>
@@ -17576,7 +17576,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>542</v>
@@ -17604,30 +17604,6 @@
       </c>
     </row>
     <row r="286" spans="1:17">
-      <c r="A286" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
-      </c>
-      <c r="D286">
-        <v>2</v>
-      </c>
-      <c r="E286">
-        <v>0.5</v>
-      </c>
-      <c r="F286">
-        <v>0.5</v>
-      </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286">
-        <v>80</v>
-      </c>
       <c r="J286" s="1" t="s">
         <v>543</v>
       </c>
@@ -17654,30 +17630,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>2</v>
-      </c>
-      <c r="E287">
-        <v>0.5</v>
-      </c>
-      <c r="F287">
-        <v>0.5</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>19</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>544</v>
       </c>
@@ -21345,7 +21297,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K428">
         <v>0.0007852200448800744</v>
@@ -21371,7 +21323,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K429">
         <v>0.0007699371619686611</v>
@@ -21397,7 +21349,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K430">
         <v>0.0007538028910121366</v>
@@ -21423,7 +21375,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K431">
         <v>0.0007280531525923526</v>
@@ -21449,7 +21401,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K432">
         <v>0.0007247599950867275</v>
@@ -21475,7 +21427,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K433">
         <v>0.0006856521673246659</v>
@@ -21501,7 +21453,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K434">
         <v>0.0006856521673246659</v>
@@ -21527,7 +21479,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K435">
         <v>0.0006856521673246659</v>
@@ -21553,7 +21505,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K436">
         <v>0.0006856521673246659</v>
@@ -21579,7 +21531,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K437">
         <v>0.0006427219218615733</v>
@@ -21605,7 +21557,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K438">
         <v>0.0005992518983352567</v>
@@ -21631,7 +21583,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K439">
         <v>0.0005992518983352567</v>
@@ -21657,7 +21609,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K440">
         <v>0.0005936255400622904</v>
@@ -30081,7 +30033,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K764">
         <v>0.0005552344184583057</v>
@@ -30107,7 +30059,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K765">
         <v>0.0005552344184583057</v>
@@ -30133,7 +30085,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K766">
         <v>0.0005106662330651895</v>
@@ -30159,7 +30111,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K767">
         <v>0.0004956855999187522</v>
@@ -30185,7 +30137,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K768">
         <v>0.0004655509071196502</v>
@@ -30211,7 +30163,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K769">
         <v>0.0004655509071196502</v>
@@ -30237,7 +30189,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K770">
         <v>0.0004655509071196502</v>
@@ -30263,7 +30215,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K771">
         <v>0.0004655509071196502</v>
@@ -30289,7 +30241,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K772">
         <v>0.0004655509071196502</v>
@@ -30315,7 +30267,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K773">
         <v>0.0004626627191078557</v>
@@ -30341,7 +30293,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K774">
         <v>0.000458122754625529</v>
@@ -30367,7 +30319,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K775">
         <v>0.0003962636344142128</v>
@@ -30393,7 +30345,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K776">
         <v>0.0003737510282425778</v>
@@ -30419,7 +30371,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K777">
         <v>0.0003690804681840103</v>
@@ -30445,7 +30397,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K778">
         <v>0.0003271519460833716</v>
@@ -30471,7 +30423,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K779">
         <v>0.0003271519460833716</v>
@@ -30523,7 +30475,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K781">
         <v>0.0002951507535969971</v>
@@ -30549,7 +30501,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K782">
         <v>0.0002802007030319168</v>
@@ -30575,7 +30527,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K783">
         <v>0.0002802007030319168</v>
@@ -30601,7 +30553,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K784">
         <v>0.0002630432040907779</v>
@@ -30627,7 +30579,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K785">
         <v>0.0002330586791749429</v>
@@ -30653,7 +30605,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K786">
         <v>0.0002330586791749429</v>
@@ -30679,7 +30631,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K787">
         <v>0.0002330586791749429</v>
@@ -30705,7 +30657,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K788">
         <v>0.0002330586791749429</v>
@@ -30731,7 +30683,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K789">
         <v>0.0002330586791749429</v>
@@ -30757,7 +30709,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K790">
         <v>0.0001972818085849553</v>
@@ -30783,7 +30735,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K791">
         <v>0.0001891585237303468</v>
@@ -30809,7 +30761,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K792">
         <v>0.0001859996333576261</v>
@@ -30835,7 +30787,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K793">
         <v>0.0001859996333576261</v>
@@ -30861,7 +30813,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K794">
         <v>0.0001859996333576261</v>
@@ -30887,7 +30839,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K795">
         <v>0.0001859996333576261</v>
@@ -30913,7 +30865,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K796">
         <v>0.0001635463414596813</v>
@@ -30939,7 +30891,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K797">
         <v>0.0001394993046551683</v>
@@ -30965,7 +30917,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K798">
         <v>0.0001394993046551683</v>
@@ -30991,7 +30943,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K799">
         <v>0.0001394993046551683</v>
@@ -31017,7 +30969,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K800">
         <v>0.0001394993046551683</v>
@@ -31043,7 +30995,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K801">
         <v>0.0001394993046551683</v>
@@ -31069,7 +31021,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K802">
         <v>0.0001394993046551683</v>
@@ -31095,7 +31047,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K803">
         <v>0.0001335350286250682</v>
@@ -31121,7 +31073,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K804">
         <v>0.0001142167374676404</v>
@@ -31147,7 +31099,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K805">
         <v>9.442352426672546E-05</v>
@@ -31173,7 +31125,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K806">
         <v>9.442352426672546E-05</v>
@@ -31199,7 +31151,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K807">
         <v>9.442352426672546E-05</v>
@@ -31225,7 +31177,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K808">
         <v>9.442352426672546E-05</v>
@@ -31251,7 +31203,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K809">
         <v>9.442352426672546E-05</v>
@@ -31277,7 +31229,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K810">
         <v>9.442352426672546E-05</v>
@@ -31303,7 +31255,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K811">
         <v>9.442352426672546E-05</v>
@@ -31329,7 +31281,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K812">
         <v>9.442352426672546E-05</v>
@@ -31355,7 +31307,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K813">
         <v>9.442352426672546E-05</v>
@@ -31381,7 +31333,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K814">
         <v>5.247294684257672E-05</v>
@@ -31407,7 +31359,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K815">
         <v>5.247294684257672E-05</v>
@@ -31433,7 +31385,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K816">
         <v>5.247294684257672E-05</v>
@@ -31459,7 +31411,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K817">
         <v>5.247294684257672E-05</v>
@@ -31485,7 +31437,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K818">
         <v>5.247294684257672E-05</v>
@@ -31511,7 +31463,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K819">
         <v>5.247294684257672E-05</v>
@@ -31537,7 +31489,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K820">
         <v>4.76543148741816E-05</v>
@@ -31563,7 +31515,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K821">
         <v>4.76543148741816E-05</v>
@@ -31589,7 +31541,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K822">
         <v>2.466202328723861E-05</v>
@@ -31615,7 +31567,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K823">
         <v>2.466202328723861E-05</v>
@@ -31641,7 +31593,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K824">
         <v>1.743868390418706E-05</v>
@@ -31667,7 +31619,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K825">
         <v>1.743868390418706E-05</v>
@@ -31693,7 +31645,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K826">
         <v>1.743868390418706E-05</v>
@@ -31719,7 +31671,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K827">
         <v>1.743868390418706E-05</v>
@@ -31745,7 +31697,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K828">
         <v>1.743868390418706E-05</v>
@@ -31771,7 +31723,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K829">
         <v>1.743868390418706E-05</v>
@@ -31797,7 +31749,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K830">
         <v>1.743868390418706E-05</v>
@@ -31823,7 +31775,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K831">
         <v>1.743868390418706E-05</v>
@@ -31849,7 +31801,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K832">
         <v>1.743868390418706E-05</v>
@@ -31875,7 +31827,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K833">
         <v>1.743868390418706E-05</v>
@@ -31901,7 +31853,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K834">
         <v>1.743868390418706E-05</v>
@@ -31927,7 +31879,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K835">
         <v>1.743868390418706E-05</v>
@@ -31953,7 +31905,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K836">
         <v>1.743868390418706E-05</v>
@@ -31979,7 +31931,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K837">
         <v>1.743868390418706E-05</v>
@@ -32005,7 +31957,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K838">
         <v>1.743868390418706E-05</v>
@@ -32031,7 +31983,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K839">
         <v>1.233101164361918E-05</v>
@@ -32057,7 +32009,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K840">
         <v>0</v>
@@ -32083,7 +32035,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K841">
         <v>0</v>
@@ -32109,7 +32061,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K842">
         <v>0</v>
@@ -32135,7 +32087,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K843">
         <v>0</v>
@@ -32161,7 +32113,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K844">
         <v>0</v>
@@ -32187,7 +32139,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K845">
         <v>0</v>
@@ -32213,7 +32165,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K846">
         <v>0</v>
@@ -32239,7 +32191,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K847">
         <v>0</v>
@@ -32265,7 +32217,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K848">
         <v>0</v>
@@ -32291,7 +32243,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K849">
         <v>0</v>
@@ -32317,7 +32269,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K850">
         <v>0</v>
@@ -32343,7 +32295,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K851">
         <v>0</v>
@@ -32369,7 +32321,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K852">
         <v>0</v>
@@ -32395,7 +32347,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K853">
         <v>0</v>
@@ -32421,7 +32373,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K854">
         <v>0</v>
@@ -32447,7 +32399,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K855">
         <v>0</v>
@@ -32473,7 +32425,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K856">
         <v>0</v>
@@ -32499,7 +32451,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K857">
         <v>0</v>
@@ -32525,7 +32477,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K858">
         <v>0</v>
@@ -32551,7 +32503,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K859">
         <v>0</v>
@@ -32577,7 +32529,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K860">
         <v>0</v>
